--- a/app/src/main/res/raw/prev_hon.xlsx
+++ b/app/src/main/res/raw/prev_hon.xlsx
@@ -5,78 +5,145 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t xml:space="preserve">ConNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Degree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Second Convocation 1967</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prof Safal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Doctor of Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auditorium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prime Minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defence minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">E4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chief Minister</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD 314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Army Chief</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+  <si>
+    <t>ConNumber</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Designation</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>Second Convocation 1967</t>
+  </si>
+  <si>
+    <t>Prof. Norman C. Dahl</t>
+  </si>
+  <si>
+    <t>First Kanpur Indo-American Programme Leader</t>
+  </si>
+  <si>
+    <t>Doctor of Science</t>
+  </si>
+  <si>
+    <t>Shri Morarji R. Desai</t>
+  </si>
+  <si>
+    <t>Deputy Prime Minister of India</t>
+  </si>
+  <si>
+    <t>Doctor of Letters</t>
+  </si>
+  <si>
+    <t>Fourteenth Convocation 1981</t>
+  </si>
+  <si>
+    <t>Prof. P. K. Kelkar</t>
+  </si>
+  <si>
+    <t>Former Director, IIT Kanpur and IIT Bombay</t>
+  </si>
+  <si>
+    <t>Thirty Second Convocation 2000</t>
+  </si>
+  <si>
+    <t>Dr. A. P. J. Abdul Kalam</t>
+  </si>
+  <si>
+    <t>Principal Scientific Adviser, Government of India</t>
+  </si>
+  <si>
+    <t>Forty Second Convocation 2010</t>
+  </si>
+  <si>
+    <t>Dr. Manmohan Singh</t>
+  </si>
+  <si>
+    <t>Prime Minister of India </t>
+  </si>
+  <si>
+    <t>Forty Fifth Convocation 2013</t>
+  </si>
+  <si>
+    <t>Prof. Ashoke Sen</t>
+  </si>
+  <si>
+    <t>Professor of Physics, Harish Chandra Research Institute </t>
+  </si>
+  <si>
+    <t>Shri N. R. Narayana Murthy</t>
+  </si>
+  <si>
+    <t>Founder, Infosys Ltd. </t>
+  </si>
+  <si>
+    <t>Forty Sixth Convocation 2014</t>
+  </si>
+  <si>
+    <t>Prof. V. Rajaraman</t>
+  </si>
+  <si>
+    <t>Honorary Professor Indian Institute of Science, Bangalore</t>
+  </si>
+  <si>
+    <t>Dr. Arun Shourie </t>
+  </si>
+  <si>
+    <t>Journalist, Former Register and Union Minister </t>
+  </si>
+  <si>
+    <t>Forty Seventh Convocation 2015</t>
+  </si>
+  <si>
+    <t>Prof. Rakesh Jain</t>
+  </si>
+  <si>
+    <t>Director, E.L. Steele Laboratory of Tumor Biology, Massachusetts General Hospital</t>
+  </si>
+  <si>
+    <t>Prof. T.V. Ramakrishnan</t>
+  </si>
+  <si>
+    <t>Emeritus Professor, Banaras Hindu University</t>
+  </si>
+  <si>
+    <t>Forty Eighth Convocation 2015</t>
+  </si>
+  <si>
+    <t>Dr. Pawan Kumar Goenka</t>
+  </si>
+  <si>
+    <t>Executive Director, Mahindra &amp; Mahindra Limited</t>
+  </si>
+  <si>
+    <t>Mr. Viswanathan Anand</t>
+  </si>
+  <si>
+    <t>India's Chess Grandmaster and Former World Chess Champion</t>
+  </si>
+  <si>
+    <t>Forty Ninth Convocation 2016</t>
+  </si>
+  <si>
+    <t>Prof. Chintamani Nagesa Ramachandra Rao</t>
+  </si>
+  <si>
+    <t>National Research Professor, Linus Pauling Research Professor and Honorary President, JNCASR</t>
   </si>
 </sst>
 </file>
@@ -84,7 +151,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="4">
@@ -92,7 +159,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -157,7 +223,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -178,21 +244,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.7551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.9030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3112244897959"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="86.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.469387755102"/>
+    <col collapsed="false" hidden="false" max="256" min="5" style="0" width="11.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -206,7 +274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -220,21 +288,21 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -248,41 +316,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="0" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>